--- a/data/trans_orig/P20D1_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Edad-trans_orig.xlsx
@@ -922,7 +922,7 @@
         <v>6565</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3658271524477392</v>
+        <v>0.3658271524477391</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2283333847726798</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1096,19 +1096,19 @@
         <v>5176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2593</v>
+        <v>2680</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7341</v>
+        <v>7421</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5879768643981212</v>
+        <v>0.5879768643981211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2945320695179744</v>
+        <v>0.3044372664012726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8339679975003619</v>
+        <v>0.8429833525228911</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1117,19 +1117,19 @@
         <v>6533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3024</v>
+        <v>3156</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10172</v>
+        <v>10389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4430435329582658</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2051052605336018</v>
+        <v>0.2140279225339182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6898900015110463</v>
+        <v>0.7046100808621908</v>
       </c>
     </row>
     <row r="11">
@@ -1146,7 +1146,7 @@
         <v>4585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1042</v>
+        <v>1260</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>5942</v>
@@ -1155,7 +1155,7 @@
         <v>0.7716666152273204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1753969153402564</v>
+        <v>0.2120683797982043</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1167,19 +1167,19 @@
         <v>3627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1462</v>
+        <v>1382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6210</v>
+        <v>6123</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4120231356018789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1660320024996382</v>
+        <v>0.157016647477109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7054679304820257</v>
+        <v>0.6955627335987276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1188,19 +1188,19 @@
         <v>8212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4573</v>
+        <v>4356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11721</v>
+        <v>11589</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5569564670417341</v>
+        <v>0.5569564670417342</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3101099984889539</v>
+        <v>0.2953899191378093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7948947394663987</v>
+        <v>0.7859720774660821</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6935</v>
+        <v>6481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1264017345505347</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.39221038043292</v>
+        <v>0.3665781345451898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1313,19 +1313,19 @@
         <v>5230</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2626</v>
+        <v>2666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8514</v>
+        <v>8693</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3620274187690424</v>
+        <v>0.3620274187690423</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1817766668044647</v>
+        <v>0.1845218806826648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.58935547975066</v>
+        <v>0.6016857239351492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1334,19 +1334,19 @@
         <v>7465</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3469</v>
+        <v>4002</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11942</v>
+        <v>12955</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2323576087334517</v>
+        <v>0.2323576087334516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1079807047156133</v>
+        <v>0.1245760067130124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3716922710920447</v>
+        <v>0.4032419379350562</v>
       </c>
     </row>
     <row r="14">
@@ -1363,16 +1363,16 @@
         <v>15446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10746</v>
+        <v>11200</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>17681</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8735982654494654</v>
+        <v>0.8735982654494652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6077896195670808</v>
+        <v>0.6334218654548117</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1384,19 +1384,19 @@
         <v>9217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5933</v>
+        <v>5754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11821</v>
+        <v>11781</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6379725812309578</v>
+        <v>0.6379725812309577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.41064452024934</v>
+        <v>0.3983142760648509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8182233331955354</v>
+        <v>0.815478119317335</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -1405,19 +1405,19 @@
         <v>24663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20186</v>
+        <v>19173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28659</v>
+        <v>28126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7676423912665483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6283077289079554</v>
+        <v>0.5967580620649438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8920192952843868</v>
+        <v>0.8754239932869876</v>
       </c>
     </row>
     <row r="15">
@@ -1509,19 +1509,19 @@
         <v>2567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6630</v>
+        <v>7535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1439217160280669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03400769909638229</v>
+        <v>0.0354997976520624</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3716732360925574</v>
+        <v>0.4224053416316888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1530,19 +1530,19 @@
         <v>6255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3597</v>
+        <v>3617</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8809</v>
+        <v>8764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5793600010321576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3331214579435531</v>
+        <v>0.3350405589987706</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.815850060106793</v>
+        <v>0.8117187292717349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1551,19 +1551,19 @@
         <v>8823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5188</v>
+        <v>5442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13492</v>
+        <v>13668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3081065569709793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1811715602725554</v>
+        <v>0.1900550876197832</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4711386076704196</v>
+        <v>0.4772969481871309</v>
       </c>
     </row>
     <row r="17">
@@ -1580,19 +1580,19 @@
         <v>15272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11209</v>
+        <v>10304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17232</v>
+        <v>17206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8560782839719333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6283267639074424</v>
+        <v>0.577594658368311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9659923009036178</v>
+        <v>0.9645002023479375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1601,19 +1601,19 @@
         <v>4542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1988</v>
+        <v>2033</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7200</v>
+        <v>7180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4206399989678424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1841499398932072</v>
+        <v>0.1882812707282651</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6668785420564469</v>
+        <v>0.6649594410012295</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1622,19 +1622,19 @@
         <v>19813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15144</v>
+        <v>14968</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23448</v>
+        <v>23194</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6918934430290208</v>
+        <v>0.6918934430290207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5288613923295808</v>
+        <v>0.5227030518128689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8188284397274447</v>
+        <v>0.8099449123802166</v>
       </c>
     </row>
     <row r="18">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3403</v>
+        <v>3195</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06289358685672182</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2236606753610564</v>
+        <v>0.209993294373951</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2805</v>
+        <v>2898</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1843716150904998</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5105256380772332</v>
+        <v>0.5274554850617656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1768,19 +1768,19 @@
         <v>1970</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4692</v>
+        <v>4375</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09512059652448336</v>
+        <v>0.09512059652448338</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02486439252861364</v>
+        <v>0.02251206391812998</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2265872625004962</v>
+        <v>0.2112630356758019</v>
       </c>
     </row>
     <row r="20">
@@ -1797,7 +1797,7 @@
         <v>14258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11812</v>
+        <v>12020</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>15215</v>
@@ -1806,7 +1806,7 @@
         <v>0.9371064131432781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7763393246389445</v>
+        <v>0.7900067056260487</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>4481</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2689</v>
+        <v>2596</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>5494</v>
@@ -1827,7 +1827,7 @@
         <v>0.8156283849095002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4894743619227661</v>
+        <v>0.4725445149382343</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1839,19 +1839,19 @@
         <v>18739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16017</v>
+        <v>16334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20194</v>
+        <v>20243</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9048794034755164</v>
+        <v>0.9048794034755167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7734127374995039</v>
+        <v>0.788736964324198</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9751356074713864</v>
+        <v>0.97748793608187</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>1614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3778</v>
+        <v>3759</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.244314064865442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05583870189110739</v>
+        <v>0.05270970562901666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5718574208380387</v>
+        <v>0.5690114309336055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -1964,19 +1964,19 @@
         <v>5369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2999</v>
+        <v>2837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8251</v>
+        <v>7699</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4754455057206844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2655722285995014</v>
+        <v>0.25126024685633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7306234212867219</v>
+        <v>0.6817423742485716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -1985,19 +1985,19 @@
         <v>6984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4268</v>
+        <v>3940</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10476</v>
+        <v>10432</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3901419513449497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2384258554762879</v>
+        <v>0.22009924984559</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.585276583805184</v>
+        <v>0.5828181527681695</v>
       </c>
     </row>
     <row r="23">
@@ -2014,19 +2014,19 @@
         <v>4992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2828</v>
+        <v>2847</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6237</v>
+        <v>6258</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.755685935134558</v>
+        <v>0.7556859351345581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4281425791619611</v>
+        <v>0.4309885690663943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9441612981088926</v>
+        <v>0.9472902943709832</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2035,19 +2035,19 @@
         <v>5924</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3042</v>
+        <v>3594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8294</v>
+        <v>8456</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5245544942793154</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2693765787132782</v>
+        <v>0.3182576257514283</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7344277714004986</v>
+        <v>0.7487397531436699</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2056,19 +2056,19 @@
         <v>10916</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7424</v>
+        <v>7468</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13632</v>
+        <v>13960</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6098580486550504</v>
+        <v>0.6098580486550503</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4147234161948163</v>
+        <v>0.4171818472318305</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7615741445237124</v>
+        <v>0.7799007501544101</v>
       </c>
     </row>
     <row r="24">
@@ -2160,19 +2160,19 @@
         <v>8730</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2181,19 +2181,19 @@
         <v>29494</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2202,19 +2202,19 @@
         <v>38224</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>59472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52922</v>
+        <v>52552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63499</v>
+        <v>63480</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8719985728759676</v>
+        <v>0.8719985728759677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7759647883300005</v>
+        <v>0.7705321049726749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9310419849117536</v>
+        <v>0.9307648439437423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2252,19 +2252,19 @@
         <v>27791</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20240</v>
+        <v>20681</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33735</v>
+        <v>34587</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4851345572457079</v>
+        <v>0.485134557245708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3533187266525502</v>
+        <v>0.3610247906929173</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5888918628921288</v>
+        <v>0.6037730737487657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -2273,19 +2273,19 @@
         <v>87263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74699</v>
+        <v>76822</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96492</v>
+        <v>96702</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6953950170816892</v>
+        <v>0.6953950170816894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5952748916358115</v>
+        <v>0.6121913449575844</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7689431542382812</v>
+        <v>0.7706115535449788</v>
       </c>
     </row>
     <row r="27">
